--- a/techlanAppleLaptops.xlsx
+++ b/techlanAppleLaptops.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="135">
   <si>
     <t>Names</t>
   </si>
@@ -181,142 +181,154 @@
     <t>Apple MacBook Pro M3 Max chip 16‑Inch Display 16‑Core CPU 40‑Core GPU 48GB Ram 1TB SSD Laptop</t>
   </si>
   <si>
-    <t>96,000৳</t>
-  </si>
-  <si>
-    <t>97,000৳</t>
-  </si>
-  <si>
-    <t>128,000৳</t>
-  </si>
-  <si>
-    <t>140,000৳</t>
-  </si>
-  <si>
-    <t>142,000৳</t>
-  </si>
-  <si>
-    <t>143,500৳</t>
-  </si>
-  <si>
-    <t>152,000৳</t>
-  </si>
-  <si>
-    <t>161,000৳</t>
-  </si>
-  <si>
-    <t>169,000৳</t>
-  </si>
-  <si>
-    <t>174,999৳</t>
-  </si>
-  <si>
-    <t>180,000৳</t>
-  </si>
-  <si>
-    <t>184,000৳</t>
-  </si>
-  <si>
-    <t>185,000৳</t>
-  </si>
-  <si>
-    <t>186,000৳</t>
-  </si>
-  <si>
-    <t>190,000৳</t>
-  </si>
-  <si>
-    <t>209,000৳</t>
-  </si>
-  <si>
-    <t>233,000৳</t>
-  </si>
-  <si>
-    <t>240,000৳</t>
-  </si>
-  <si>
-    <t>245,000৳</t>
-  </si>
-  <si>
-    <t>260,000৳</t>
-  </si>
-  <si>
-    <t>265,000৳</t>
-  </si>
-  <si>
-    <t>285,000৳</t>
-  </si>
-  <si>
-    <t>330,000৳</t>
-  </si>
-  <si>
-    <t>353,000৳</t>
-  </si>
-  <si>
-    <t>393,500৳</t>
-  </si>
-  <si>
-    <t>414,000৳</t>
-  </si>
-  <si>
-    <t>449,000৳</t>
-  </si>
-  <si>
-    <t>450,000৳</t>
-  </si>
-  <si>
-    <t>469,000৳</t>
-  </si>
-  <si>
-    <t>538,500৳</t>
-  </si>
-  <si>
-    <t>105,000৳</t>
-  </si>
-  <si>
-    <t>146,000৳</t>
-  </si>
-  <si>
-    <t>145,000৳</t>
-  </si>
-  <si>
-    <t>165,000৳</t>
-  </si>
-  <si>
-    <t>170,000৳</t>
-  </si>
-  <si>
-    <t>158,000৳</t>
-  </si>
-  <si>
-    <t>162,000৳</t>
-  </si>
-  <si>
-    <t>186,700৳</t>
-  </si>
-  <si>
-    <t>194,900৳</t>
-  </si>
-  <si>
-    <t>263,000৳</t>
-  </si>
-  <si>
-    <t>303,800৳</t>
-  </si>
-  <si>
-    <t>351,000৳</t>
-  </si>
-  <si>
-    <t>380,000৳</t>
-  </si>
-  <si>
-    <t>399,000৳</t>
-  </si>
-  <si>
-    <t>515,000৳</t>
-  </si>
-  <si>
-    <t>580,000৳</t>
+    <t>&lt;span class="price-new"&gt;96,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-new"&gt;97,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-new"&gt;128,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-new"&gt;140,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-normal"&gt;142,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-new"&gt;143,500৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-new"&gt;152,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-new"&gt;161,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-normal"&gt;169,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-new"&gt;174,999৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-normal"&gt;180,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-new"&gt;184,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-new"&gt;185,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-normal"&gt;185,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-normal"&gt;186,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-normal"&gt;190,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-normal"&gt;209,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-normal"&gt;233,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-new"&gt;240,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-normal"&gt;245,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-normal"&gt;260,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-normal"&gt;265,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-normal"&gt;285,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-normal"&gt;330,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-new"&gt;330,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-new"&gt;353,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-new"&gt;393,500৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-normal"&gt;414,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-normal"&gt;449,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-normal"&gt;450,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-new"&gt;469,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-new"&gt;538,500৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-old"&gt;105,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-old"&gt;146,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-old"&gt;145,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-old"&gt;165,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-old"&gt;170,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-old"&gt;158,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-old"&gt;162,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-old"&gt;169,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-old"&gt;186,700৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-old"&gt;194,900৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-old"&gt;190,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-old"&gt;263,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-old"&gt;303,800৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-old"&gt;351,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-old"&gt;380,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-old"&gt;399,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-old"&gt;515,000৳&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="price-old"&gt;580,000৳&lt;/span&gt;</t>
   </si>
   <si>
     <t>Chipset: M1Memory: 8GBStorage: 256GB SSDSecurity: Fingerprint Reader</t>
@@ -795,10 +807,10 @@
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -812,10 +824,10 @@
         <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -829,10 +841,10 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -846,10 +858,10 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -863,10 +875,10 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -880,10 +892,10 @@
         <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -897,10 +909,10 @@
         <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -914,10 +926,10 @@
         <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -931,10 +943,10 @@
         <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -951,7 +963,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -965,10 +977,10 @@
         <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -982,10 +994,10 @@
         <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -999,10 +1011,10 @@
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1016,10 +1028,10 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1033,10 +1045,10 @@
         <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1050,10 +1062,10 @@
         <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1070,7 +1082,7 @@
         <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1084,10 +1096,10 @@
         <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1101,10 +1113,10 @@
         <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1118,10 +1130,10 @@
         <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1135,10 +1147,10 @@
         <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1155,7 +1167,7 @@
         <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1172,7 +1184,7 @@
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1189,7 +1201,7 @@
         <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1203,10 +1215,10 @@
         <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1220,10 +1232,10 @@
         <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1234,13 +1246,13 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1251,13 +1263,13 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1268,13 +1280,13 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1285,13 +1297,13 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1302,13 +1314,13 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1319,13 +1331,13 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1336,13 +1348,13 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1353,13 +1365,13 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1370,13 +1382,13 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1387,13 +1399,13 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1404,13 +1416,13 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1421,13 +1433,13 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1438,13 +1450,13 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1455,13 +1467,13 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1472,13 +1484,13 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E42" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1489,13 +1501,13 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1506,13 +1518,13 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1523,13 +1535,13 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1540,13 +1552,13 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1557,13 +1569,13 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1574,13 +1586,13 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1591,13 +1603,13 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E49" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1608,13 +1620,13 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1625,13 +1637,13 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E51" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1642,13 +1654,13 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1659,13 +1671,13 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E53" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
